--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180D2FC-8CA7-42AE-809B-8CC68EE131EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB8B42-EB62-467E-8406-E1F398F9ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>RunDyn</t>
   </si>
@@ -72,10 +72,22 @@
     <t>FindProbx</t>
   </si>
   <si>
-    <t>Slab.Long.Wid9</t>
-  </si>
-  <si>
-    <t>Slab.Short.Wid9</t>
+    <t xml:space="preserve">Slab.Long.Wid9.Uni.Semi.p1.Mp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slab.Short.Wid9.Uni.Semi.p1.Mp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slab.Long.Wid9.Uni.Semi.p2.Mp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slab.Short.Wid9.Uni.Semi.p2.Mp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slab.Long.Wid9.Uni.Semi.p3.Mp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slab.Short.Wid9.Uni.Semi.p3.Mp  </t>
   </si>
 </sst>
 </file>
@@ -467,13 +479,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
     <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
@@ -584,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>0.2</v>
@@ -617,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
         <v>0.2</v>
@@ -650,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>0.2</v>
@@ -683,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>0.2</v>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CB8B42-EB62-467E-8406-E1F398F9ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBAA5E-4CB4-42C2-AA00-0B0B9397CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29595" yWindow="345" windowWidth="28800" windowHeight="15375" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -69,25 +69,13 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>FindProbx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slab.Long.Wid9.Uni.Semi.p1.Mp  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slab.Short.Wid9.Uni.Semi.p1.Mp  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slab.Long.Wid9.Uni.Semi.p2.Mp  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slab.Short.Wid9.Uni.Semi.p2.Mp  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slab.Long.Wid9.Uni.Semi.p3.Mp  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slab.Short.Wid9.Uni.Semi.p3.Mp  </t>
+    <t>Slab.Long.Wid9.Uni.Semi.p1</t>
+  </si>
+  <si>
+    <t>Slab.Short.Wid9.Uni.Semi.p1</t>
+  </si>
+  <si>
+    <t>Exp</t>
   </si>
 </sst>
 </file>
@@ -138,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -157,6 +145,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,201 +525,108 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G3" s="10">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I3" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="str">
-        <f>J2</f>
-        <v>FindProbx</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="str">
-        <f t="shared" ref="J4:J7" si="0">J3</f>
-        <v>FindProbx</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FindProbx</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FindProbx</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>FindProbx</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -744,7 +649,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -754,7 +659,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -764,7 +669,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -783,56 +688,6 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBAA5E-4CB4-42C2-AA00-0B0B9397CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835D679D-6C5E-4B46-AE66-A91A5380DF5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="345" windowWidth="28800" windowHeight="15375" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29592" yWindow="348" windowWidth="28800" windowHeight="15372" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -72,10 +63,10 @@
     <t>Slab.Long.Wid9.Uni.Semi.p1</t>
   </si>
   <si>
-    <t>Slab.Short.Wid9.Uni.Semi.p1</t>
-  </si>
-  <si>
-    <t>Exp</t>
+    <t>Box.Stand.Wid9.Uni.Simp.p0</t>
+  </si>
+  <si>
+    <t>Exp2</t>
   </si>
 </sst>
 </file>
@@ -474,10 +465,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -570,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -639,7 +630,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -669,7 +660,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -678,16 +669,6 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835D679D-6C5E-4B46-AE66-A91A5380DF5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1258140-51BA-4743-9B8E-6F2BA25A438B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29592" yWindow="348" windowWidth="28800" windowHeight="15372" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1258140-51BA-4743-9B8E-6F2BA25A438B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649478E7-D32D-4397-AEE0-760AD02CE977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29592" yWindow="348" windowWidth="28800" windowHeight="15372" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17835" yWindow="1410" windowWidth="16575" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -66,7 +75,7 @@
     <t>Box.Stand.Wid9.Uni.Simp.p0</t>
   </si>
   <si>
-    <t>Exp2</t>
+    <t>Bi2L</t>
   </si>
 </sst>
 </file>
@@ -123,29 +132,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +477,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,190 +493,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="b">
+      <c r="I2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="10">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649478E7-D32D-4397-AEE0-760AD02CE977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94851A9B-0484-402F-B772-C0FA89E2A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17835" yWindow="1410" windowWidth="16575" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6468" yWindow="1248" windowWidth="16572" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>RunDyn</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Folder</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid9.Uni.Semi.p1</t>
   </si>
   <si>
     <t>Box.Stand.Wid9.Uni.Simp.p0</t>
@@ -126,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -155,6 +152,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +484,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,68 +532,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="13">
+        <v>1122</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94851A9B-0484-402F-B772-C0FA89E2A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56265C9-7A5B-4C3B-90EA-8C0855CD5536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6468" yWindow="1248" windowWidth="16572" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="1245" windowWidth="13545" windowHeight="6555" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -72,7 +63,7 @@
     <t>Box.Stand.Wid9.Uni.Simp.p0</t>
   </si>
   <si>
-    <t>Bi2L</t>
+    <t>Try12</t>
   </si>
 </sst>
 </file>
@@ -484,22 +475,22 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -531,9 +522,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>1122</v>
+        <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>11</v>
@@ -563,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -575,7 +566,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -585,7 +576,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -595,7 +586,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -605,7 +596,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -615,7 +606,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -625,7 +616,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -635,7 +626,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -645,7 +636,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -655,7 +646,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56265C9-7A5B-4C3B-90EA-8C0855CD5536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D86E3-003C-4EA4-997C-1AB7671A4F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="1245" windowWidth="13545" windowHeight="6555" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Box.Stand.Wid9.Uni.Simp.p0</t>
-  </si>
-  <si>
-    <t>Try12</t>
+    <t>Slab112</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid18.Bi,Slab.Short.Wid18.Bi</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +524,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
+        <v>1122</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D86E3-003C-4EA4-997C-1AB7671A4F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59047F8E-9B23-4D6E-8089-D12F60370281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="1245" windowWidth="13545" windowHeight="6555" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1245" windowWidth="2175" windowHeight="3945" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -60,10 +60,13 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Slab112</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid18.Bi,Slab.Short.Wid18.Bi</t>
+    <t>Grauholz</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid12.Uni</t>
+  </si>
+  <si>
+    <t>LSVA</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -126,7 +129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -134,12 +136,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,83 +486,112 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1122</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="K1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>431</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>10</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="b">
+      <c r="I2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>432</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -576,7 +601,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -586,7 +611,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -596,7 +621,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -606,7 +631,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -616,7 +641,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -626,7 +651,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -636,7 +661,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -646,7 +671,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59047F8E-9B23-4D6E-8089-D12F60370281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A341462-001D-425A-9F2A-3406DFA39B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1245" windowWidth="2175" windowHeight="3945" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45420" yWindow="3720" windowWidth="18480" windowHeight="11175" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -142,9 +142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,25 +465,25 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -521,77 +518,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>431</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>432</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="b">
+      <c r="K2" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>432</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -601,7 +573,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -611,7 +583,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -621,7 +593,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -631,8 +603,8 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -641,7 +613,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -651,7 +623,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -661,8 +633,8 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -671,16 +643,6 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A341462-001D-425A-9F2A-3406DFA39B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB3BCA-4C85-4624-88E3-4B1DA5815071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45420" yWindow="3720" windowWidth="18480" windowHeight="11175" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -468,22 +468,22 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -518,9 +518,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -553,17 +553,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>432</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -573,7 +598,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -583,7 +608,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -593,7 +618,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -603,7 +628,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -613,7 +638,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -623,7 +648,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -633,7 +658,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEB3BCA-4C85-4624-88E3-4B1DA5815071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABCC86B-56B7-420D-A6D1-CAA76F571B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45420" yWindow="3720" windowWidth="18480" windowHeight="11175" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="2976" windowWidth="14784" windowHeight="8940" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -465,25 +465,25 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -518,9 +518,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -553,42 +553,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>432</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -598,7 +573,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -608,7 +583,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -618,8 +593,8 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -628,7 +603,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -638,7 +613,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -648,8 +623,8 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -658,16 +633,6 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABCC86B-56B7-420D-A6D1-CAA76F571B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA8FF0A-D883-4EBE-9A44-6C2A18DD91B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="2976" windowWidth="14784" windowHeight="8940" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="2970" windowWidth="14790" windowHeight="8940" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -468,22 +468,22 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -518,9 +518,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -553,17 +553,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>432</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -573,7 +598,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -583,7 +608,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -593,7 +618,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -603,7 +628,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -613,7 +638,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -623,7 +648,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA8FF0A-D883-4EBE-9A44-6C2A18DD91B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB768F-FD0A-4EDF-AF7F-3EC775FEF8E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="2970" windowWidth="14790" windowHeight="8940" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RunDyn</t>
   </si>
@@ -60,13 +60,13 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Grauholz</t>
-  </si>
-  <si>
-    <t>Box.Stand.Wid12.Uni</t>
-  </si>
-  <si>
     <t>LSVA</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid12.Uni.Simp.p0</t>
+  </si>
+  <si>
+    <t>Uni2LNew</t>
   </si>
 </sst>
 </file>
@@ -465,16 +465,16 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
     <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
@@ -515,12 +515,12 @@
         <v>10</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -547,46 +547,21 @@
         <v>0</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>432</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -609,7 +584,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -639,7 +614,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -648,16 +623,6 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB768F-FD0A-4EDF-AF7F-3EC775FEF8E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEA846-E56A-4C39-BBF4-16B788C295C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2970" windowWidth="14790" windowHeight="8940" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="2970" windowWidth="14145" windowHeight="3510" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>RunDyn</t>
   </si>
@@ -66,7 +66,19 @@
     <t>Box.Stand.Wid12.Uni.Simp.p0</t>
   </si>
   <si>
-    <t>Uni2LNew</t>
+    <t>Stage2P</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid18.Bi.Simp.p0</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid12.Bi.Simp.p0</t>
+  </si>
+  <si>
+    <t>StopSim</t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -148,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +496,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -517,8 +530,14 @@
       <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -547,33 +566,101 @@
         <v>0</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1122</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -583,7 +670,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -593,7 +680,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -603,7 +690,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -613,7 +700,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEA846-E56A-4C39-BBF4-16B788C295C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724F921-909C-4DEE-807F-D8376E3D01E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="2970" windowWidth="14145" windowHeight="3510" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Stage2P</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Box.Stand.Wid18.Bi.Simp.p0</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>StopSim</t>
+  </si>
+  <si>
+    <t>New2</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="9" t="b">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K3" s="9" t="b">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>1122</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9" t="b">
         <v>0</v>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724F921-909C-4DEE-807F-D8376E3D01E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4596104-6E1B-4FED-AFF3-6BD9075886E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="2970" windowWidth="14145" windowHeight="3510" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RunDyn</t>
   </si>
@@ -63,22 +63,16 @@
     <t>LSVA</t>
   </si>
   <si>
-    <t>Box.Stand.Wid12.Uni.Simp.p0</t>
-  </si>
-  <si>
     <t>Stage2P</t>
   </si>
   <si>
     <t>Box.Stand.Wid18.Bi.Simp.p0</t>
   </si>
   <si>
-    <t>Box.Stand.Wid12.Bi.Simp.p0</t>
-  </si>
-  <si>
     <t>StopSim</t>
   </si>
   <si>
-    <t>New2</t>
+    <t>WIMBox</t>
   </si>
 </sst>
 </file>
@@ -129,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -153,14 +147,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,137 +523,75 @@
         <v>11</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10">
+        <v>1122</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="b">
+      <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9" t="b">
+      <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="b">
+      <c r="L2" s="9">
         <v>1</v>
       </c>
-      <c r="M2" s="12" t="b">
+      <c r="M2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1122</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="b">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -681,7 +611,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -690,26 +620,6 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4596104-6E1B-4FED-AFF3-6BD9075886E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852A910-5331-4A8C-A5BF-B67AE981C22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2970" windowWidth="14145" windowHeight="3510" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="2970" windowWidth="14145" windowHeight="3330" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>RunDyn</t>
   </si>
@@ -66,13 +66,13 @@
     <t>Stage2P</t>
   </si>
   <si>
-    <t>Box.Stand.Wid18.Bi.Simp.p0</t>
-  </si>
-  <si>
     <t>StopSim</t>
   </si>
   <si>
-    <t>WIMBox</t>
+    <t>Slab.Short.Wid9.Bi</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid9.Bi</t>
   </si>
 </sst>
 </file>
@@ -126,6 +126,15 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -136,15 +145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,10 +470,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,136 +489,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>14</v>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1122</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
+      <c r="M2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A3" s="8">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852A910-5331-4A8C-A5BF-B67AE981C22A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADA9FE-8DDE-4F80-93C5-5EB9DCA4AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2970" windowWidth="14145" windowHeight="3330" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31095" yWindow="2715" windowWidth="20715" windowHeight="13920" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>RunDyn</t>
   </si>
@@ -69,10 +69,10 @@
     <t>StopSim</t>
   </si>
   <si>
-    <t>Slab.Short.Wid9.Bi</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid9.Bi</t>
+    <t>RunFat</t>
+  </si>
+  <si>
+    <t>Venoge2</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -133,18 +133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,25 +458,25 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -528,86 +516,51 @@
       <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+        <v>406</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
         <v>1</v>
       </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Input/VBWIMqInputx.xlsx
+++ b/Input/VBWIMqInputx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADA9FE-8DDE-4F80-93C5-5EB9DCA4AEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE00A3B-F976-4AFE-A656-A5FF55DAE782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="2715" windowWidth="20715" windowHeight="13920" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="2880" windowWidth="18204" windowHeight="9648" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>RunDyn</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Venoge2</t>
+  </si>
+  <si>
+    <t>FatCat</t>
+  </si>
+  <si>
+    <t>FatScale</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,6 +145,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +485,7 @@
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -519,10 +528,16 @@
       <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -534,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -561,6 +576,62 @@
         <v>0</v>
       </c>
       <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>45</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>45</v>
+      </c>
+      <c r="P3" s="7">
         <v>1</v>
       </c>
     </row>
